--- a/data/CS3/Market Data/CS3_market_data_2050.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2050.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B94D51A-57B1-4043-8F90-37119DB0F935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5DE8CA5-C3BC-467F-9FA4-2452AE09675C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,10 +1338,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2050.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2050.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5DE8CA5-C3BC-467F-9FA4-2452AE09675C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD79E8F3-36EB-42BC-BF2D-3C314C70E217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-12390" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,11 +1338,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2050.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2050.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD79E8F3-36EB-42BC-BF2D-3C314C70E217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434777A5-6E0E-4ACD-9B7C-A583CE11ABFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-12390" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/CS3/Market Data/CS3_market_data_2050.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2050.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434777A5-6E0E-4ACD-9B7C-A583CE11ABFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BACAC7-E691-480E-A185-18059E07896B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-12390" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,10 +1338,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2050.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2050.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BACAC7-E691-480E-A185-18059E07896B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5CDE31-5D9B-4703-A2A1-815C4A513AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-12390" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,11 +1338,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2050.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2050.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5CDE31-5D9B-4703-A2A1-815C4A513AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9398C1F-6D63-4097-8B39-C31DC70F692C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29760" yWindow="-11310" windowWidth="28800" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,10 +1338,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2050.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2050.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9398C1F-6D63-4097-8B39-C31DC70F692C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F269F62A-038F-4EF0-9B12-4779DCDAC105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29760" yWindow="-11310" windowWidth="28800" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,11 +1338,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2050.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2050.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F269F62A-038F-4EF0-9B12-4779DCDAC105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26529C74-A23D-462F-885B-19590F0EB5EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29760" yWindow="-11310" windowWidth="28800" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>

--- a/data/CS3/Market Data/CS3_market_data_2050.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2050.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26529C74-A23D-462F-885B-19590F0EB5EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC32B2BE-1A93-4FC9-82DB-729BAEC16EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,10 +1338,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2050.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2050.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC32B2BE-1A93-4FC9-82DB-729BAEC16EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A196FE7A-3564-4B31-AE57-53EB74DBB8E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,11 +1338,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2050.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2050.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A196FE7A-3564-4B31-AE57-53EB74DBB8E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC272113-3D77-4996-954D-EA8894CEB266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/CS3/Market Data/CS3_market_data_2050.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2050.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC272113-3D77-4996-954D-EA8894CEB266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988842B4-9DDA-4580-8665-200724D71104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,10 +1338,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2050.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2050.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988842B4-9DDA-4580-8665-200724D71104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF101242-C9AE-4DEF-B8B3-53C4F6271D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47985" yWindow="-3195" windowWidth="16650" windowHeight="9630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,11 +1338,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2050.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2050.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF101242-C9AE-4DEF-B8B3-53C4F6271D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B383B70-E349-410E-AB5E-7308053A583D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="47985" yWindow="-3195" windowWidth="16650" windowHeight="9630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,10 +1338,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2050.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2050.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B383B70-E349-410E-AB5E-7308053A583D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A870131-AE45-4C11-BD80-6631B572F40C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="47985" yWindow="-3195" windowWidth="16650" windowHeight="9630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,11 +1338,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2050.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2050.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A870131-AE45-4C11-BD80-6631B572F40C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73E60FC-1EA4-4130-9913-FBB238D19946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47985" yWindow="-3195" windowWidth="16650" windowHeight="9630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,10 +1338,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>
